--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\BI-code\yubi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A433F921-E898-4508-8FD2-374D7484388A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F661012-4F26-4A5A-9161-025062ED700C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="13287" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="23"/>
@@ -497,7 +497,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -505,7 +505,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -513,7 +513,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -521,7 +521,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
